--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F407A-DD08-2B40-A146-B4A5DEF1A162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F71537-6004-D94B-A600-34AD918B5826}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="5760" windowWidth="28800" windowHeight="16080" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
@@ -34,13 +34,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={4CED19CA-89B6-7F40-A469-8DE269005ACD}</author>
     <author>tc={351836E6-4DD3-1E4A-8F4E-18DA3917C935}</author>
     <author>tc={172C76FE-E3B7-744A-9253-97BC57B99921}</author>
     <author>tc={55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}</author>
-    <author>tc={4CED19CA-89B6-7F40-A469-8DE269005ACD}</author>
   </authors>
   <commentList>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{4CED19CA-89B6-7F40-A469-8DE269005ACD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    What is the worst case?</t>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -48,7 +56,7 @@
     לבדוק עם קרמר ערך החזרה</t>
       </text>
     </comment>
-    <comment ref="G32" authorId="1" shapeId="0" xr:uid="{172C76FE-E3B7-744A-9253-97BC57B99921}">
+    <comment ref="G33" authorId="2" shapeId="0" xr:uid="{172C76FE-E3B7-744A-9253-97BC57B99921}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,20 +64,12 @@
     לבדוק עם קרמר ערך החזרה</t>
       </text>
     </comment>
-    <comment ref="G33" authorId="2" shapeId="0" xr:uid="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
+    <comment ref="G34" authorId="3" shapeId="0" xr:uid="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     לבדוק עם קרמר ערך החזרה</t>
-      </text>
-    </comment>
-    <comment ref="H52" authorId="3" shapeId="0" xr:uid="{4CED19CA-89B6-7F40-A469-8DE269005ACD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    What is the worst case?</t>
       </text>
     </comment>
   </commentList>
@@ -588,9 +588,6 @@
     <t>RadixSort</t>
   </si>
   <si>
-    <t>Forum</t>
-  </si>
-  <si>
     <t>A - Array of int nums
 d -num of the digits of the maximum item in array A</t>
   </si>
@@ -635,6 +632,10 @@
   </si>
   <si>
     <t>A - new array</t>
+  </si>
+  <si>
+    <t>None - update the array with out return value
+***BinSort still return new array</t>
   </si>
 </sst>
 </file>
@@ -810,7 +811,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I56" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="D5:I56" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:I52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:I54">
     <sortCondition ref="D5:D56"/>
   </sortState>
   <tableColumns count="6">
@@ -1135,17 +1136,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G19" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
+  <threadedComment ref="H17" dT="2020-05-27T12:22:53.35" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{4CED19CA-89B6-7F40-A469-8DE269005ACD}" done="1">
+    <text>What is the worst case?</text>
+  </threadedComment>
+  <threadedComment ref="G20" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
     <text>לבדוק עם קרמר ערך החזרה</text>
   </threadedComment>
-  <threadedComment ref="G32" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{172C76FE-E3B7-744A-9253-97BC57B99921}">
+  <threadedComment ref="G33" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{172C76FE-E3B7-744A-9253-97BC57B99921}">
     <text>לבדוק עם קרמר ערך החזרה</text>
   </threadedComment>
-  <threadedComment ref="G33" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
+  <threadedComment ref="G34" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
     <text>לבדוק עם קרמר ערך החזרה</text>
-  </threadedComment>
-  <threadedComment ref="H52" dT="2020-05-27T12:22:53.35" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{4CED19CA-89B6-7F40-A469-8DE269005ACD}" done="1">
-    <text>What is the worst case?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1154,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,10 +1359,10 @@
         <v>142</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="3" t="s">
         <v>143</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>61</v>
@@ -1369,19 +1370,19 @@
     </row>
     <row r="17" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>146</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="34" x14ac:dyDescent="0.2">
@@ -1389,13 +1390,13 @@
         <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1406,13 +1407,13 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
@@ -1423,16 +1424,16 @@
         <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1440,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="51" x14ac:dyDescent="0.2">
@@ -1457,67 +1458,67 @@
         <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
+    <row r="24" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="51" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="51" x14ac:dyDescent="0.2">
@@ -1525,13 +1526,13 @@
         <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>17</v>
@@ -1542,7 +1543,7 @@
         <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -1556,19 +1557,19 @@
     </row>
     <row r="28" spans="4:8" ht="51" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="51" x14ac:dyDescent="0.2">
@@ -1576,7 +1577,7 @@
         <v>109</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>111</v>
@@ -1585,24 +1586,24 @@
         <v>112</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="4:8" ht="34" x14ac:dyDescent="0.2">
@@ -1610,13 +1611,13 @@
         <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>52</v>
@@ -1627,13 +1628,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>140</v>
+        <v>53</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>52</v>
@@ -1644,10 +1645,10 @@
         <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>140</v>
@@ -1661,16 +1662,16 @@
         <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="4:8" ht="34" x14ac:dyDescent="0.2">
@@ -1678,13 +1679,13 @@
         <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>61</v>
@@ -1692,53 +1693,53 @@
     </row>
     <row r="36" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1746,13 +1747,13 @@
         <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>66</v>
@@ -1760,68 +1761,70 @@
     </row>
     <row r="40" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>37</v>
+      <c r="E43" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1829,22 +1832,29 @@
         <v>34</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>42</v>
+      <c r="E45" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1854,16 +1864,16 @@
         <v>34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1871,7 +1881,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1879,118 +1889,109 @@
         <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2118,16 +2119,16 @@
     </row>
     <row r="18" spans="5:8" ht="119" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F71537-6004-D94B-A600-34AD918B5826}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E9EFC-32F3-D644-BAF3-F271A231958F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5760" windowWidth="28800" windowHeight="16080" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="-28800" yWindow="5360" windowWidth="28800" windowHeight="16240" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="197">
   <si>
     <t>Algo</t>
   </si>
@@ -637,6 +637,143 @@
     <t>None - update the array with out return value
 ***BinSort still return new array</t>
   </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>1. init - 
+2. Find
+3. Insert
+4. Delete</t>
+  </si>
+  <si>
+    <t>1. Find - O(1)
+2. Insert O(log(n))
+3. Delete - log(n)
+4.GetKthStatisticOrder-log(n)</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>﻿PrintFrequncies(A)</t>
+  </si>
+  <si>
+    <t>A - array</t>
+  </si>
+  <si>
+    <t>None.  - print a paris of the freqncies of the array</t>
+  </si>
+  <si>
+    <t>O(n) - expected</t>
+  </si>
+  <si>
+    <t>﻿HashOrderStat</t>
+  </si>
+  <si>
+    <t>MaxIdenticalDist(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max distance between 2 identical items, for example:
+ MaxIdenticalDist([3, 2, 4, 5, 5, 3, 5, 2]) = 6 (2 is the furthest, 4 undefined).
+</t>
+  </si>
+  <si>
+    <t>Union-Find</t>
+  </si>
+  <si>
+    <t>1. Make Set(item)
+2. Find(X)
+3. Union(x,y)</t>
+  </si>
+  <si>
+    <t>Dynamic HashTable</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>(item)</t>
+  </si>
+  <si>
+    <t>Union - Find</t>
+  </si>
+  <si>
+    <t>X- node - not item.</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>X - Node that belong to linked list
+Y - Node that belong to linked list</t>
+  </si>
+  <si>
+    <t>Make Set</t>
+  </si>
+  <si>
+    <t>X - node - not item</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(k) - k is the len of the smaller linked list between x and y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union obj -
+ 1. len: 1
+2. head - X
+3. tail - X
+</t>
+  </si>
+  <si>
+    <t>add (add to the head)</t>
+  </si>
+  <si>
+    <t>X - value to delete</t>
+  </si>
+  <si>
+    <t>True or false if the value deleted</t>
+  </si>
+  <si>
+    <t>Kruskal</t>
+  </si>
+  <si>
+    <t>מיכל</t>
+  </si>
+  <si>
+    <t>G - Connected  compoment grpah
+W - Weight function</t>
+  </si>
+  <si>
+    <t>Graph -  Minimum spanning tree (it is a tree but the in grpah DS, (V,E)</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Prim</t>
+  </si>
+  <si>
+    <t>O(|E|*log(|E|)</t>
+  </si>
+  <si>
+    <t>dikkstra</t>
+  </si>
+  <si>
+    <t>d- array of weight of distance from each node v in the graph - the dist from v to s (in weights), Size of d is |V|</t>
+  </si>
+  <si>
+    <t>G(V,E,l) - G is directed graph and l is a weight function
+s - start node in G</t>
+  </si>
+  <si>
+    <t>O((|V+|E|)*log(|V|))</t>
+  </si>
 </sst>
 </file>
 
@@ -645,7 +782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -660,12 +797,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -700,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,17 +839,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -738,56 +926,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,15 +947,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I56" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="D5:I56" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I67" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="D5:I67" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:I54">
     <sortCondition ref="D5:D56"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{E0A6BEF6-68B8-7549-9745-BCC962ED804E}" name="Output" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{DC8E4F2C-A850-3F41-8F35-3B9EB631CB33}" name="Time Complexity" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{F992AC53-BE70-A645-9676-DBFAB74909AC}" name="implement" dataDxfId="6"/>
@@ -827,13 +965,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:H28" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:H28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="E9:H28" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2C621583-C69B-E148-B20E-D2C4C550CEEF}" name="Functions" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2C621583-C69B-E148-B20E-D2C4C550CEEF}" name="Functions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1153,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
-  <dimension ref="D5:I54"/>
+  <dimension ref="D5:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,816 +1329,1070 @@
       </c>
     </row>
     <row r="6" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="4:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D17" s="1" t="s">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D21" s="1" t="s">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D27" s="1" t="s">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D30" s="1" t="s">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D31" s="1" t="s">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D34" s="1" t="s">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D35" s="1" t="s">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D41" s="1" t="s">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D42" s="1" t="s">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D43" s="1" t="s">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D45" s="1" t="s">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D47" s="1" t="s">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D48" s="1" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D49" s="1" t="s">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="4:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D50" s="1" t="s">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D51" s="1" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D54" s="1" t="s">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="4:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="4:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="D60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I7:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2014,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
-  <dimension ref="E9:H18"/>
+  <dimension ref="E9:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,6 +2523,38 @@
         <v>149</v>
       </c>
     </row>
+    <row r="19" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E9EFC-32F3-D644-BAF3-F271A231958F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3869D7-A6FF-4C49-8DBE-7A72BDADFC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5360" windowWidth="28800" windowHeight="16240" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="DS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
   <si>
     <t>Algo</t>
   </si>
@@ -89,9 +91,6 @@
   </si>
   <si>
     <t>Input</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>QuickSort</t>
@@ -612,9 +611,6 @@
 4. no limit of memory</t>
   </si>
   <si>
-    <t>Init</t>
-  </si>
-  <si>
     <t xml:space="preserve">len
 </t>
   </si>
@@ -773,6 +769,32 @@
   </si>
   <si>
     <t>O((|V+|E|)*log(|V|))</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Push (O(1) - to the head of the Linked List)
+Pop (O(1)) - from the head of the linked list</t>
+  </si>
+  <si>
+    <t>Enqueue (O(1) - to the head of the Linked List)
+Dequeue (O(1)) - from the head of the linked list</t>
+  </si>
+  <si>
+    <t>Doubly linked list -
+Head (Node)
+Tail (Node)</t>
+  </si>
+  <si>
+    <t>Signly Linked List - Head (Node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. root of tree
+2. </t>
   </si>
 </sst>
 </file>
@@ -856,9 +878,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -907,26 +946,6 @@
       <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -947,31 +966,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I67" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I67" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="D5:I67" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:I54">
     <sortCondition ref="D5:D56"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E0A6BEF6-68B8-7549-9745-BCC962ED804E}" name="Output" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{DC8E4F2C-A850-3F41-8F35-3B9EB631CB33}" name="Time Complexity" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F992AC53-BE70-A645-9676-DBFAB74909AC}" name="implement" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E0A6BEF6-68B8-7549-9745-BCC962ED804E}" name="Output" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DC8E4F2C-A850-3F41-8F35-3B9EB631CB33}" name="Time Complexity" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F992AC53-BE70-A645-9676-DBFAB74909AC}" name="implement" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:H28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="E9:H28" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2C621583-C69B-E148-B20E-D2C4C550CEEF}" name="Functions" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="E9:G28" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1293,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="C4" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1328,7 @@
   <sheetData>
     <row r="5" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -1325,126 +1343,126 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1452,618 +1470,618 @@
     </row>
     <row r="13" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2072,46 +2090,46 @@
     </row>
     <row r="48" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2120,121 +2138,121 @@
     </row>
     <row r="51" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="G55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2242,121 +2260,121 @@
     </row>
     <row r="58" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D61" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="G64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="I64" s="3"/>
     </row>
@@ -2381,7 +2399,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2389,10 +2407,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I7:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2406,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
-  <dimension ref="E9:H22"/>
+  <dimension ref="E9:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,142 +2435,160 @@
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:7" ht="17" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="10" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="5:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="5:7" ht="136" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="34" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="5:7" ht="34" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" ht="34" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="34" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="5:7" ht="34" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="16" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="5:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="5:7" ht="85" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="5:7" ht="119" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="68" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="E20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="5:7" ht="51" x14ac:dyDescent="0.2">
       <c r="E21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="5:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="E22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>171</v>
+    <row r="23" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3869D7-A6FF-4C49-8DBE-7A72BDADFC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33EB57-67B5-1F49-839E-9C3F629CD7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="210">
   <si>
     <t>Algo</t>
   </si>
@@ -156,9 +156,6 @@
     </r>
   </si>
   <si>
-    <t>MergeSort</t>
-  </si>
-  <si>
     <t>BinarySearch</t>
   </si>
   <si>
@@ -218,17 +215,6 @@
     <t>BST</t>
   </si>
   <si>
-    <t>1. key/val 
-2. left - Node
-3 right- Node
-4. up/par - Node</t>
-  </si>
-  <si>
-    <t>1. x.left&lt;x&lt;x.right
-2. Only 1 Root
-3. All Vertex has a route from the root</t>
-  </si>
-  <si>
     <t>MaxHeap</t>
   </si>
   <si>
@@ -236,9 +222,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>HeapSort</t>
   </si>
   <si>
     <t>delete</t>
@@ -303,16 +286,6 @@
     <t>AVL</t>
   </si>
   <si>
-    <t>1. key/val 
-2. left - Node
-3 right- Node
-4. up/par - Node
-5. bal - 
-"1" - Right is big  
-"-1" - Left is big
-"=" - Equal</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -356,10 +329,6 @@
     <t>AVL_SUM</t>
   </si>
   <si>
-    <t>AVL
-left_sum</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -386,9 +355,6 @@
   </si>
   <si>
     <t>max item in the array (value not index)</t>
-  </si>
-  <si>
-    <t>BinSort</t>
   </si>
   <si>
     <t>Array A - Array of natural numbers in the range(0,k)</t>
@@ -582,9 +548,6 @@
   </si>
   <si>
     <t>extractMax/getMax</t>
-  </si>
-  <si>
-    <t>RadixSort</t>
   </si>
   <si>
     <t>A - Array of int nums
@@ -793,8 +756,131 @@
     <t>Signly Linked List - Head (Node)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. root of tree
-2. </t>
+    <t>1. root of heap
+2. n_th - binary rep of n (num of nodes)</t>
+  </si>
+  <si>
+    <t>1. key/val 
+2. left - Node
+3 right- Node
+4. up/par - Node
+1. x.left&lt;x&lt;x.right
+2. Only 1 Root
+3. All Vertex has a route from the root</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BST Parms.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (x.bal = h(x.right)-h(x.left)) 
+Therefore, x.bal in {-1,0,1} s.t
+"1" - Right is big  
+"-1" - Left is big
+"=" - Equal</t>
+    </r>
+  </si>
+  <si>
+    <t>BST Functions
+Rotate O(1)u</t>
+  </si>
+  <si>
+    <t>0. build - O(n)
+1. Find Max - O(1)
+2. Extract Max (log(n))
+3. Insert - O(n)</t>
+  </si>
+  <si>
+    <t>Build (nlogn , if A is sorted so n)
+1.find - O(h)
+2. successor - O(h)
+3. insert - O(h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertices (array) with n linked lists - each linked list represent the neighbors of the I vertex
+</t>
+  </si>
+  <si>
+    <t>AVL Functions
+Sum(v) - sum all the elements that are less/equal to v - log(n)</t>
+  </si>
+  <si>
+    <t>1. AVL Parms.
+2. left_sum - holds the sum of all the left sub tree include its own value</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>find,insert,delete in log(n)
+CountPoints(d1,d2) - log(n) 
+CountPoints(d1,d2) and return the num of points that: d1&lt;||p||&lt;d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 AVL
+1 Stanrtad avl - keys by first coordinate and than another hashing by the second coordinate.
+2. AVL Tree for distance - (3,4)= (3^2+4^2)^.5= 5 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MergeSort </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Stable)</t>
+    </r>
+  </si>
+  <si>
+    <t>HeapSort (not stable)</t>
+  </si>
+  <si>
+    <t>BinSort (not stable)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RadixSort </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Stable)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -853,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -874,11 +960,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -898,18 +999,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -984,12 +1073,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
   <autoFilter ref="E9:G28" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1311,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1372,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
@@ -1387,13 +1476,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
@@ -1405,16 +1494,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -1423,16 +1512,16 @@
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -1441,16 +1530,16 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1459,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1473,16 +1562,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1491,16 +1580,16 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1509,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1525,16 +1614,16 @@
         <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1543,103 +1632,103 @@
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1648,425 +1737,425 @@
     </row>
     <row r="23" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G44" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>9</v>
@@ -2078,10 +2167,10 @@
     </row>
     <row r="47" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2090,46 +2179,46 @@
     </row>
     <row r="48" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2138,121 +2227,121 @@
     </row>
     <row r="51" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2260,121 +2349,121 @@
     </row>
     <row r="58" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D61" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D64" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I64" s="3"/>
     </row>
@@ -2399,7 +2488,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2407,10 +2496,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I7:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2424,17 +2513,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
-  <dimension ref="E9:G24"/>
+  <dimension ref="E9:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2444,151 +2533,198 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="5:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
+      <c r="F10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="5:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="E17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="E18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="E20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="E22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="F25" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>197</v>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="5:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="E26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="30" spans="5:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33EB57-67B5-1F49-839E-9C3F629CD7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C185B-A938-C24C-A827-F6233C34F887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="213">
   <si>
     <t>Algo</t>
   </si>
@@ -369,9 +369,6 @@
 *** if k&gt;nlogn -&gt;less effincey than QuickSort</t>
   </si>
   <si>
-    <t>InsertionSort</t>
-  </si>
-  <si>
     <t>Binary Represation</t>
   </si>
   <si>
@@ -574,10 +571,6 @@
 4. no limit of memory</t>
   </si>
   <si>
-    <t xml:space="preserve">len
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dynamic List (list in python) - Tirgul 8 - 1:48 </t>
   </si>
   <si>
@@ -598,12 +591,6 @@
   </si>
   <si>
     <t>Hash Table</t>
-  </si>
-  <si>
-    <t>1. init - 
-2. Find
-3. Insert
-4. Delete</t>
   </si>
   <si>
     <t>1. Find - O(1)
@@ -882,6 +869,62 @@
       <t>(Stable)</t>
     </r>
   </si>
+  <si>
+    <t>InsertionSort (Stable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy
+</t>
+  </si>
+  <si>
+    <t>m - array that is Theta of (|S| - num of keys), in each index there is a linked list that the len of the linked list is O(1) space.
+h - hash function from |U|---&gt;m</t>
+  </si>
+  <si>
+    <t>Perfect Hash Table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U - is kF19nown. S is uknown.
+1. init - O(n)
+2. Find - O(1)
+3. Insert - O(1)
+4. Delete - O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(1) in the worst case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U - is known. S is uknown.
+1. init - O(n)
+2. Find - O(1)
+3. Insert - O(1)
+4. Delete - O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(1) in avg case</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -890,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -912,8 +955,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,8 +984,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -935,11 +999,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -963,23 +1068,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -999,6 +1101,18 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1073,12 +1187,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="E9:G28" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="3">
+  <autoFilter ref="E9:G29" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1400,16 +1514,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B7" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
@@ -1476,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -1507,7 +1621,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1525,12 +1639,12 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
@@ -1580,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>76</v>
@@ -1598,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1614,13 +1728,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>55</v>
@@ -1632,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1755,19 +1869,19 @@
     </row>
     <row r="24" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -1791,16 +1905,16 @@
     </row>
     <row r="26" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
@@ -1809,16 +1923,16 @@
     </row>
     <row r="27" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
@@ -1827,16 +1941,16 @@
     </row>
     <row r="28" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
@@ -1845,37 +1959,37 @@
     </row>
     <row r="29" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="4:9" ht="51" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -1926,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>47</v>
@@ -1944,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>47</v>
@@ -1959,10 +2073,10 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>55</v>
@@ -1974,13 +2088,13 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>55</v>
@@ -1989,7 +2103,7 @@
     </row>
     <row r="37" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>31</v>
@@ -2001,25 +2115,25 @@
         <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -2064,13 +2178,13 @@
         <v>56</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>60</v>
@@ -2082,13 +2196,13 @@
         <v>56</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>60</v>
@@ -2136,7 +2250,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>35</v>
@@ -2152,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>18</v>
@@ -2245,16 +2359,16 @@
     </row>
     <row r="52" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>47</v>
@@ -2263,16 +2377,16 @@
     </row>
     <row r="53" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>55</v>
@@ -2281,67 +2395,67 @@
     </row>
     <row r="54" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="H55" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2349,103 +2463,103 @@
     </row>
     <row r="58" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" ht="85" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" ht="34" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I63" s="3"/>
     </row>
@@ -2454,16 +2568,16 @@
         <v>56</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="I64" s="3"/>
     </row>
@@ -2488,7 +2602,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2496,10 +2610,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I7:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2513,218 +2627,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
-  <dimension ref="E9:G30"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="33" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="136" x14ac:dyDescent="0.2">
       <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="102" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E16" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" ht="85" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E20" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="5:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="E20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="E21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E21" s="8" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="5:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="E23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="5:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="E22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E23" s="8" t="s">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="E24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="E25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E25" s="8" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="5:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="E26" s="8" t="s">
+      <c r="F27" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-    </row>
-    <row r="30" spans="5:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="F30" s="2" t="s">
-        <v>203</v>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="31" spans="5:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C185B-A938-C24C-A827-F6233C34F887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E434D3C6-75F9-5B4E-B5FF-929DDFBE4DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -33,53 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4CED19CA-89B6-7F40-A469-8DE269005ACD}</author>
-    <author>tc={351836E6-4DD3-1E4A-8F4E-18DA3917C935}</author>
-    <author>tc={172C76FE-E3B7-744A-9253-97BC57B99921}</author>
-    <author>tc={55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}</author>
-  </authors>
-  <commentList>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{4CED19CA-89B6-7F40-A469-8DE269005ACD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    What is the worst case?</t>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    לבדוק עם קרמר ערך החזרה</t>
-      </text>
-    </comment>
-    <comment ref="G33" authorId="2" shapeId="0" xr:uid="{172C76FE-E3B7-744A-9253-97BC57B99921}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    לבדוק עם קרמר ערך החזרה</t>
-      </text>
-    </comment>
-    <comment ref="G34" authorId="3" shapeId="0" xr:uid="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    לבדוק עם קרמר ערך החזרה</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
   <si>
     <t>Algo</t>
   </si>
@@ -94,9 +49,6 @@
   </si>
   <si>
     <t>QuickSort</t>
-  </si>
-  <si>
-    <t>implement</t>
   </si>
   <si>
     <t>DS</t>
@@ -547,10 +499,6 @@
     <t>extractMax/getMax</t>
   </si>
   <si>
-    <t>A - Array of int nums
-d -num of the digits of the maximum item in array A</t>
-  </si>
-  <si>
     <t>quick-select</t>
   </si>
   <si>
@@ -687,9 +635,6 @@
   </si>
   <si>
     <t>Kruskal</t>
-  </si>
-  <si>
-    <t>מיכל</t>
   </si>
   <si>
     <t>G - Connected  compoment grpah
@@ -885,27 +830,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">U - is kF19nown. S is uknown.
-1. init - O(n)
-2. Find - O(1)
-3. Insert - O(1)
-4. Delete - O(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O(1) in the worst case.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">U - is known. S is uknown.
 1. init - O(n)
 2. Find - O(1)
@@ -924,6 +848,52 @@
       </rPr>
       <t>O(1) in avg case</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U - is known. S is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>known</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+1. init - O(n)
+2. Find - O(1)
+3. Insert - O(1)
+4. Delete - O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(1) in the worst case.</t>
+    </r>
+  </si>
+  <si>
+    <t>A - Array of int
+d -num of the digits of the maximum item in array A</t>
   </si>
 </sst>
 </file>
@@ -1081,27 +1051,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1116,10 +1066,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1163,36 +1109,33 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Guest User" id="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" userId="" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:I67" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="D5:I67" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:I54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:H67" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="D5:H67" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:H54">
     <sortCondition ref="D5:D56"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E0A6BEF6-68B8-7549-9745-BCC962ED804E}" name="Output" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DC8E4F2C-A850-3F41-8F35-3B9EB631CB33}" name="Time Complexity" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{F992AC53-BE70-A645-9676-DBFAB74909AC}" name="implement" dataDxfId="7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{80F9078F-69CC-0546-95CD-B09761BD2936}" name="DS" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{18F3684A-9193-454C-B139-04233EF53FF6}" name="Algo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2C7B11D6-CDC1-154A-96CF-1F996F49EB1A}" name="Input" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E0A6BEF6-68B8-7549-9745-BCC962ED804E}" name="Output" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{DC8E4F2C-A850-3F41-8F35-3B9EB631CB33}" name="Time Complexity" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C3A3F8C-32D2-5F44-996C-E9A5B8659295}" name="Table3" displayName="Table3" ref="E9:G29" totalsRowShown="0" headerRowDxfId="4" dataDxfId="1">
   <autoFilter ref="E9:G29" xr:uid="{4E6693B5-FBC7-A648-99A7-DAA9F6BABDF7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{63E29F26-3A40-3649-8609-0626278F88BA}" name="DS" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{10C58539-5EDB-C948-B5A0-0DE972C4ED4B}" name="Functions" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EB36FCB6-AE0C-504C-AAEC-05707FCC2C5E}" name="arttibutes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1493,29 +1436,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H17" dT="2020-05-27T12:22:53.35" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{4CED19CA-89B6-7F40-A469-8DE269005ACD}" done="1">
-    <text>What is the worst case?</text>
-  </threadedComment>
-  <threadedComment ref="G20" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{351836E6-4DD3-1E4A-8F4E-18DA3917C935}">
-    <text>לבדוק עם קרמר ערך החזרה</text>
-  </threadedComment>
-  <threadedComment ref="G33" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{172C76FE-E3B7-744A-9253-97BC57B99921}">
-    <text>לבדוק עם קרמר ערך החזרה</text>
-  </threadedComment>
-  <threadedComment ref="G34" dT="2020-05-27T03:13:22.32" personId="{61AFBA52-28DF-8148-9452-CE9EEDF32F1D}" id="{55A2A9A8-4B85-B845-BCB2-AC9E92EB673D}">
-    <text>לבדוק עם קרמר ערך החזרה</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
-  <dimension ref="D5:I67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
+  <dimension ref="D5:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,13 +1451,12 @@
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -1545,1092 +1470,1016 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
+    </row>
+    <row r="9" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
+    </row>
+    <row r="23" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="4:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="3" t="s">
+    </row>
+    <row r="27" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="3" t="s">
+    </row>
+    <row r="44" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
+      <c r="H44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D37" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D38" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="G55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H55" s="3" t="s">
+    </row>
+    <row r="56" spans="4:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="4:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="D56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="4:9" ht="34" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="4:9" ht="85" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="85" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="3" t="s">
+    </row>
+    <row r="61" spans="4:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="4:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="D61" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="4:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="D63" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="4:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="D64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="4:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I7:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(I7))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(I7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
-  <dimension ref="B1:H31"/>
+  <dimension ref="E1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2642,243 +2491,243 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="5:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="5:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="5:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="E11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="E12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="E13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E19" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E20" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E21" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E22" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E23" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2896,7 +2745,7 @@
     </row>
     <row r="31" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E434D3C6-75F9-5B4E-B5FF-929DDFBE4DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005CBF48-697B-E940-B65A-6FCA9E0B3BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="216">
   <si>
     <t>Algo</t>
   </si>
@@ -663,9 +663,6 @@
 s - start node in G</t>
   </si>
   <si>
-    <t>O((|V+|E|)*log(|V|))</t>
-  </si>
-  <si>
     <t>Queue</t>
   </si>
   <si>
@@ -894,6 +891,30 @@
   <si>
     <t>A - Array of int
 d -num of the digits of the maximum item in array A</t>
+  </si>
+  <si>
+    <t>1. linked list (each node holds the linked list that it belongs to
+1.1 head
+1.2 tail
+2. counter of elements in the linked list.
+3. representative item (val)</t>
+  </si>
+  <si>
+    <t>Find new mst in mst/{e}</t>
+  </si>
+  <si>
+    <t>G- weighted, undirected abd connected graph
+T- MST
+e - edge that in T</t>
+  </si>
+  <si>
+    <t>new MST</t>
+  </si>
+  <si>
+    <t>O(|E|)</t>
+  </si>
+  <si>
+    <t>O(|V|+|E|)*log(|E|)</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>21</v>
@@ -1561,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -1608,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>75</v>
@@ -1640,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>142</v>
@@ -2148,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -2441,15 +2462,25 @@
         <v>178</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D66" s="3"/>
@@ -2478,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
   <dimension ref="E1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2532,10 +2563,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -2544,10 +2575,10 @@
         <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -2556,10 +2587,10 @@
         <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -2568,10 +2599,10 @@
         <v>98</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2627,7 +2658,7 @@
         <v>136</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -2636,22 +2667,22 @@
         <v>143</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E20" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2665,13 +2696,15 @@
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="5:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -2687,25 +2720,25 @@
     </row>
     <row r="24" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="G25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2715,19 +2748,19 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E27" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2745,7 +2778,7 @@
     </row>
     <row r="31" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005CBF48-697B-E940-B65A-6FCA9E0B3BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D6119-C749-FD4E-BD93-92F0FBD85795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="217">
   <si>
     <t>Algo</t>
   </si>
@@ -915,6 +915,10 @@
   </si>
   <si>
     <t>O(|V|+|E|)*log(|E|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. BST Functions
+ 2. </t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -2509,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
   <dimension ref="E1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2614,9 @@
       <c r="E14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>108</v>
       </c>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D6119-C749-FD4E-BD93-92F0FBD85795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C24E81-71EF-DF4C-86D3-5A546F2921CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
   <si>
     <t>Algo</t>
   </si>
@@ -416,10 +416,6 @@
     <t>OrderStat BST</t>
   </si>
   <si>
-    <t xml:space="preserve">BST +
-left_sub_tree </t>
-  </si>
-  <si>
     <t>r - root of BST
 k - the k static item in tree</t>
   </si>
@@ -482,15 +478,6 @@
   </si>
   <si>
     <t>RangeArray</t>
-  </si>
-  <si>
-    <t>"How many entries in the
-original array fall into the range [a, ..., b] "</t>
-  </si>
-  <si>
-    <t>k - max item in array of positive int
-units- array of bin sort - how many units per index
-total units - how many units until specifc index include the index.</t>
   </si>
   <si>
     <t>Not defined</t>
@@ -813,10 +800,6 @@
   </si>
   <si>
     <t>InsertionSort (Stable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy
-</t>
   </si>
   <si>
     <t>m - array that is Theta of (|S| - num of keys), in each index there is a linked list that the len of the linked list is O(1) space.
@@ -918,7 +901,51 @@
   </si>
   <si>
     <t xml:space="preserve">1. BST Functions
- 2. </t>
+2. Get the k^th stat (O(h)) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BST +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left_sub_tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (how many nodes the node has in its left subtree</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AVL functions
+</t>
+  </si>
+  <si>
+    <t>1. Build DS - O(n+k) s.t n is the len of array and k is the maximum elemnt in the array
+"How many entries in the
+original array fall into the range [a, ..., b] " - O(1)</t>
+  </si>
+  <si>
+    <t>1. k - max item in array of positive int
+2, units- array of bin sort - how many units per index
+3. total units - how many units until specifc index include the index.</t>
+  </si>
+  <si>
+    <t>2 lists - one in len (n) and the second len 2n</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A12" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>21</v>
@@ -1586,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -1633,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>75</v>
@@ -1650,13 +1677,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1665,13 +1692,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>54</v>
@@ -1682,16 +1709,16 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="17" x14ac:dyDescent="0.2">
@@ -1798,19 +1825,19 @@
     </row>
     <row r="24" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="34" x14ac:dyDescent="0.2">
@@ -1960,7 +1987,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>46</v>
@@ -1977,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>46</v>
@@ -2019,7 +2046,7 @@
     </row>
     <row r="37" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>30</v>
@@ -2031,24 +2058,24 @@
         <v>34</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="4:8" ht="34" x14ac:dyDescent="0.2">
@@ -2158,7 +2185,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>34</v>
@@ -2173,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -2266,10 +2293,10 @@
         <v>106</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>46</v>
@@ -2297,159 +2324,159 @@
         <v>86</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="H55" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="4:8" ht="85" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="4:8" ht="85" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="4:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="63" spans="4:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="64" spans="4:8" ht="51" x14ac:dyDescent="0.2">
@@ -2457,33 +2484,33 @@
         <v>55</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="4:8" ht="68" x14ac:dyDescent="0.2">
       <c r="D65" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.2">
@@ -2513,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
   <dimension ref="E1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,10 +2594,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -2579,10 +2606,10 @@
         <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -2591,10 +2618,10 @@
         <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -2603,148 +2630,150 @@
         <v>98</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="5:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E14" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="5:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E19" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E20" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E21" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="5:8" ht="102" x14ac:dyDescent="0.2">
       <c r="E22" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E23" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8" ht="68" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2754,19 +2783,19 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2784,7 +2813,7 @@
     </row>
     <row r="31" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C24E81-71EF-DF4C-86D3-5A546F2921CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42ECDD-55A6-4744-AFDC-20DA6EEE150B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
   <si>
     <t>Algo</t>
   </si>
@@ -945,7 +945,63 @@
 3. total units - how many units until specifc index include the index.</t>
   </si>
   <si>
-    <t>2 lists - one in len (n) and the second len 2n</t>
+    <t>2 lists - the len of the first is (n) 
+and len of the second is 2n</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>A - lst of integers.
+m - the maximum int in lst</t>
+  </si>
+  <si>
+    <t>new sorted array of A</t>
+  </si>
+  <si>
+    <t>O(n+m)</t>
+  </si>
+  <si>
+    <t>CountingSort (Stable)</t>
+  </si>
+  <si>
+    <t>SortSquare</t>
+  </si>
+  <si>
+    <t>A - list of integrs. All the values in the range of [0,n^2-1]
+N - len of a</t>
+  </si>
+  <si>
+    <t>FindStats</t>
+  </si>
+  <si>
+    <t>A - lst of integers.
+K - int s.t 2^k&lt;=n</t>
+  </si>
+  <si>
+    <t>Array that contains the 2^^i^th items in the array s.t 0&lt;=i&lt;=k</t>
+  </si>
+  <si>
+    <t>FindRepating</t>
+  </si>
+  <si>
+    <t>A - list of integrs</t>
+  </si>
+  <si>
+    <t>Value if there is a number that appears more than n//2 times in the array, else None</t>
+  </si>
+  <si>
+    <t>DetSelect</t>
+  </si>
+  <si>
+    <t>A - Array of numbers.
+k - int in the range of [0,len(A)-1]</t>
+  </si>
+  <si>
+    <t>the k^th value in the array</t>
+  </si>
+  <si>
+    <t>O(n) - worst case</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:H67" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="D5:H67" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9FBF222-6BE1-C34E-B625-506F411E77DE}" name="Table2" displayName="Table2" ref="D5:H72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="D5:H72" xr:uid="{25EC1BC8-51B0-7647-A4C0-6AFCBA0059A6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:H54">
     <sortCondition ref="D5:D56"/>
   </sortState>
@@ -1490,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
-  <dimension ref="D5:H67"/>
+  <dimension ref="D5:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2513,19 +2569,104 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+    <row r="66" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="D69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="D70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2540,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E53AC7-27D6-914E-B9D4-4C7C6489E974}">
   <dimension ref="E1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="B20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Table - Algos and DS.xlsx
+++ b/Table - Algos and DS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liorkesten/Desktop/Computer Science/Year 1/Semester B/Dast/Dast-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42ECDD-55A6-4744-AFDC-20DA6EEE150B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78683B80-4BBD-974C-B4BA-2542489D4AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2080" windowWidth="28800" windowHeight="18000" xr2:uid="{A8AE9C0F-D82F-1544-A5E1-B3CA30F908FC}"/>
   </bookViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CF5C0-F3DA-4945-8C48-38E432B7FD16}">
   <dimension ref="D5:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
